--- a/実行結果/お互いにDP(cost-user_int__S_f_p2_egoTwitter)発信源寮調整後.xlsx
+++ b/実行結果/お互いにDP(cost-user_int__S_f_p2_egoTwitter)発信源寮調整後.xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asatt\Documents\研究\お勉強\Programing\Go_diffusion_suppression2\実行結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A48589C-7F31-4F52-B8FF-348E01421668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F83E8317-500B-44B7-A94C-5BA0DD184ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{B4685DAC-2D26-403C-87C0-2FDF35E942C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="1" xr2:uid="{B4685DAC-2D26-403C-87C0-2FDF35E942C1}"/>
   </bookViews>
   <sheets>
     <sheet name="お互いにDP(cost-user_int__S_f_p2_eg" sheetId="1" r:id="rId1"/>
+    <sheet name="4つ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>seed</t>
   </si>
@@ -113,7 +128,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -705,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1088,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B24F1C7-652A-4607-82D4-897938C63D64}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3666,4 +3681,1160 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C3AC9C-A75A-48CC-8C5C-F17536715070}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="12" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>16.405000000000001</v>
+      </c>
+      <c r="C1">
+        <v>12.997</v>
+      </c>
+      <c r="D1">
+        <v>20.427</v>
+      </c>
+      <c r="E1">
+        <v>20.427</v>
+      </c>
+      <c r="F1">
+        <v>16.405000000000001</v>
+      </c>
+      <c r="G1">
+        <v>12.997</v>
+      </c>
+      <c r="H1">
+        <f>B1-F1</f>
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <f>H1/B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>30.001999999999999</v>
+      </c>
+      <c r="C2">
+        <v>12.792</v>
+      </c>
+      <c r="D2">
+        <v>33.491</v>
+      </c>
+      <c r="E2">
+        <v>33.491</v>
+      </c>
+      <c r="F2">
+        <v>30.001999999999999</v>
+      </c>
+      <c r="G2">
+        <v>12.792</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H36" si="0">B2-F2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I36" si="1">H2/B2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1">
+        <f>AVERAGE(I1:I36)</f>
+        <v>1.7251260016025458E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>39.06</v>
+      </c>
+      <c r="C3">
+        <v>11.989000000000001</v>
+      </c>
+      <c r="D3">
+        <v>43.271000000000001</v>
+      </c>
+      <c r="E3">
+        <v>43.345999999999997</v>
+      </c>
+      <c r="F3">
+        <v>38.701000000000001</v>
+      </c>
+      <c r="G3">
+        <v>12.75</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0.35900000000000176</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="1"/>
+        <v>9.1909882232463318E-3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
+        <f>MAX(I1:I36)</f>
+        <v>6.2789958690816619E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>46.856999999999999</v>
+      </c>
+      <c r="C4">
+        <v>11.755000000000001</v>
+      </c>
+      <c r="D4">
+        <v>50.862000000000002</v>
+      </c>
+      <c r="E4">
+        <v>50.862000000000002</v>
+      </c>
+      <c r="F4">
+        <v>46.856999999999999</v>
+      </c>
+      <c r="G4">
+        <v>11.755000000000001</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="1">
+        <f>COUNTIF(I1:I36,0)/COUNT(I1:I36)</f>
+        <v>0.69444444444444442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>18.352</v>
+      </c>
+      <c r="C5">
+        <v>14.904</v>
+      </c>
+      <c r="D5">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="E5">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="F5">
+        <v>18.352</v>
+      </c>
+      <c r="G5">
+        <v>14.904</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>25.359000000000002</v>
+      </c>
+      <c r="C6">
+        <v>13.954000000000001</v>
+      </c>
+      <c r="D6">
+        <v>27.548999999999999</v>
+      </c>
+      <c r="E6">
+        <v>27.548999999999999</v>
+      </c>
+      <c r="F6">
+        <v>25.359000000000002</v>
+      </c>
+      <c r="G6">
+        <v>13.954000000000001</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>29.529</v>
+      </c>
+      <c r="C7">
+        <v>13.88</v>
+      </c>
+      <c r="D7">
+        <v>32.01</v>
+      </c>
+      <c r="E7">
+        <v>32.267000000000003</v>
+      </c>
+      <c r="F7">
+        <v>30.123999999999999</v>
+      </c>
+      <c r="G7">
+        <v>13.965999999999999</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-0.59499999999999886</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.0149683362118555E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>34.029000000000003</v>
+      </c>
+      <c r="C8">
+        <v>14.032999999999999</v>
+      </c>
+      <c r="D8">
+        <v>36.801000000000002</v>
+      </c>
+      <c r="E8">
+        <v>36.384</v>
+      </c>
+      <c r="F8">
+        <v>34.128999999999998</v>
+      </c>
+      <c r="G8">
+        <v>13.829000000000001</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999994316E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.9386699579768524E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>14.914999999999999</v>
+      </c>
+      <c r="C9">
+        <v>27.276</v>
+      </c>
+      <c r="D9">
+        <v>15.875999999999999</v>
+      </c>
+      <c r="E9">
+        <v>15.875999999999999</v>
+      </c>
+      <c r="F9">
+        <v>14.914999999999999</v>
+      </c>
+      <c r="G9">
+        <v>27.276</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>22.183</v>
+      </c>
+      <c r="C10">
+        <v>26.652000000000001</v>
+      </c>
+      <c r="D10">
+        <v>23.707000000000001</v>
+      </c>
+      <c r="E10">
+        <v>23.707000000000001</v>
+      </c>
+      <c r="F10">
+        <v>22.183</v>
+      </c>
+      <c r="G10">
+        <v>26.652000000000001</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>28.172000000000001</v>
+      </c>
+      <c r="C11">
+        <v>25.187999999999999</v>
+      </c>
+      <c r="D11">
+        <v>29.59</v>
+      </c>
+      <c r="E11">
+        <v>29.59</v>
+      </c>
+      <c r="F11">
+        <v>28.172000000000001</v>
+      </c>
+      <c r="G11">
+        <v>25.187999999999999</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>32.595999999999997</v>
+      </c>
+      <c r="C12">
+        <v>24.919</v>
+      </c>
+      <c r="D12">
+        <v>34.514000000000003</v>
+      </c>
+      <c r="E12">
+        <v>34.994</v>
+      </c>
+      <c r="F12">
+        <v>33.029000000000003</v>
+      </c>
+      <c r="G12">
+        <v>24.431999999999999</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>-0.43300000000000693</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.3283838507792581E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>15.304</v>
+      </c>
+      <c r="C13">
+        <v>14.112</v>
+      </c>
+      <c r="D13">
+        <v>15.644</v>
+      </c>
+      <c r="E13">
+        <v>15.644</v>
+      </c>
+      <c r="F13">
+        <v>15.304</v>
+      </c>
+      <c r="G13">
+        <v>14.112</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>22.582000000000001</v>
+      </c>
+      <c r="C14">
+        <v>13.794</v>
+      </c>
+      <c r="D14">
+        <v>23.809000000000001</v>
+      </c>
+      <c r="E14">
+        <v>23.809000000000001</v>
+      </c>
+      <c r="F14">
+        <v>22.582000000000001</v>
+      </c>
+      <c r="G14">
+        <v>13.794</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>28.957999999999998</v>
+      </c>
+      <c r="C15">
+        <v>13.589</v>
+      </c>
+      <c r="D15">
+        <v>29.619</v>
+      </c>
+      <c r="E15">
+        <v>29.206</v>
+      </c>
+      <c r="F15">
+        <v>27.733000000000001</v>
+      </c>
+      <c r="G15">
+        <v>13.853999999999999</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.2249999999999979</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>4.230264521030451E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>34.08</v>
+      </c>
+      <c r="C16">
+        <v>13.452</v>
+      </c>
+      <c r="D16">
+        <v>34.982999999999997</v>
+      </c>
+      <c r="E16">
+        <v>33.872</v>
+      </c>
+      <c r="F16">
+        <v>32.332000000000001</v>
+      </c>
+      <c r="G16">
+        <v>13.619</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1.7479999999999976</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1291079812206507E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>15.041</v>
+      </c>
+      <c r="C17">
+        <v>15.276</v>
+      </c>
+      <c r="D17">
+        <v>15.303000000000001</v>
+      </c>
+      <c r="E17">
+        <v>15.303000000000001</v>
+      </c>
+      <c r="F17">
+        <v>15.041</v>
+      </c>
+      <c r="G17">
+        <v>15.276</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>24.302</v>
+      </c>
+      <c r="C18">
+        <v>14.752000000000001</v>
+      </c>
+      <c r="D18">
+        <v>26.015000000000001</v>
+      </c>
+      <c r="E18">
+        <v>26.015000000000001</v>
+      </c>
+      <c r="F18">
+        <v>24.302</v>
+      </c>
+      <c r="G18">
+        <v>14.752000000000001</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>30.588999999999999</v>
+      </c>
+      <c r="C19">
+        <v>14.535</v>
+      </c>
+      <c r="D19">
+        <v>31.821000000000002</v>
+      </c>
+      <c r="E19">
+        <v>31.821000000000002</v>
+      </c>
+      <c r="F19">
+        <v>30.588999999999999</v>
+      </c>
+      <c r="G19">
+        <v>14.535</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>34.472000000000001</v>
+      </c>
+      <c r="C20">
+        <v>14.907999999999999</v>
+      </c>
+      <c r="D20">
+        <v>36.46</v>
+      </c>
+      <c r="E20">
+        <v>36.46</v>
+      </c>
+      <c r="F20">
+        <v>34.472000000000001</v>
+      </c>
+      <c r="G20">
+        <v>14.907999999999999</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>12.35</v>
+      </c>
+      <c r="C21">
+        <v>16.713000000000001</v>
+      </c>
+      <c r="D21">
+        <v>13.481</v>
+      </c>
+      <c r="E21">
+        <v>13.481</v>
+      </c>
+      <c r="F21">
+        <v>12.35</v>
+      </c>
+      <c r="G21">
+        <v>16.713000000000001</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>22.513000000000002</v>
+      </c>
+      <c r="C22">
+        <v>15.590999999999999</v>
+      </c>
+      <c r="D22">
+        <v>24.091999999999999</v>
+      </c>
+      <c r="E22">
+        <v>24.091999999999999</v>
+      </c>
+      <c r="F22">
+        <v>22.513000000000002</v>
+      </c>
+      <c r="G22">
+        <v>15.590999999999999</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>31.547000000000001</v>
+      </c>
+      <c r="C23">
+        <v>14.927</v>
+      </c>
+      <c r="D23">
+        <v>33.066000000000003</v>
+      </c>
+      <c r="E23">
+        <v>33.066000000000003</v>
+      </c>
+      <c r="F23">
+        <v>31.547000000000001</v>
+      </c>
+      <c r="G23">
+        <v>14.927</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>39.276000000000003</v>
+      </c>
+      <c r="C24">
+        <v>14.75</v>
+      </c>
+      <c r="D24">
+        <v>40.758000000000003</v>
+      </c>
+      <c r="E24">
+        <v>40.758000000000003</v>
+      </c>
+      <c r="F24">
+        <v>39.276000000000003</v>
+      </c>
+      <c r="G24">
+        <v>14.75</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>15.734999999999999</v>
+      </c>
+      <c r="C25">
+        <v>28.911000000000001</v>
+      </c>
+      <c r="D25">
+        <v>17.329000000000001</v>
+      </c>
+      <c r="E25">
+        <v>18.503</v>
+      </c>
+      <c r="F25">
+        <v>14.747</v>
+      </c>
+      <c r="G25">
+        <v>27.113</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0.98799999999999955</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2789958690816619E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>28.062999999999999</v>
+      </c>
+      <c r="C26">
+        <v>26.981000000000002</v>
+      </c>
+      <c r="D26">
+        <v>31.978000000000002</v>
+      </c>
+      <c r="E26">
+        <v>31.978000000000002</v>
+      </c>
+      <c r="F26">
+        <v>28.062999999999999</v>
+      </c>
+      <c r="G26">
+        <v>26.981000000000002</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>38.231999999999999</v>
+      </c>
+      <c r="C27">
+        <v>26.28</v>
+      </c>
+      <c r="D27">
+        <v>42.822000000000003</v>
+      </c>
+      <c r="E27">
+        <v>42.822000000000003</v>
+      </c>
+      <c r="F27">
+        <v>38.231999999999999</v>
+      </c>
+      <c r="G27">
+        <v>26.28</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>43.462000000000003</v>
+      </c>
+      <c r="C28">
+        <v>24.908999999999999</v>
+      </c>
+      <c r="D28">
+        <v>47.932000000000002</v>
+      </c>
+      <c r="E28">
+        <v>47.932000000000002</v>
+      </c>
+      <c r="F28">
+        <v>43.462000000000003</v>
+      </c>
+      <c r="G28">
+        <v>24.908999999999999</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>15.189</v>
+      </c>
+      <c r="C29">
+        <v>18.789000000000001</v>
+      </c>
+      <c r="D29">
+        <v>16.053000000000001</v>
+      </c>
+      <c r="E29">
+        <v>16.053000000000001</v>
+      </c>
+      <c r="F29">
+        <v>15.189</v>
+      </c>
+      <c r="G29">
+        <v>18.789000000000001</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>24.404</v>
+      </c>
+      <c r="C30">
+        <v>18.789000000000001</v>
+      </c>
+      <c r="D30">
+        <v>25.663</v>
+      </c>
+      <c r="E30">
+        <v>26.353000000000002</v>
+      </c>
+      <c r="F30">
+        <v>24.504000000000001</v>
+      </c>
+      <c r="G30">
+        <v>17.905999999999999</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.097688903458508E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>33.783000000000001</v>
+      </c>
+      <c r="C31">
+        <v>17.702000000000002</v>
+      </c>
+      <c r="D31">
+        <v>35.765000000000001</v>
+      </c>
+      <c r="E31">
+        <v>35.765000000000001</v>
+      </c>
+      <c r="F31">
+        <v>33.783000000000001</v>
+      </c>
+      <c r="G31">
+        <v>17.702000000000002</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>39.283999999999999</v>
+      </c>
+      <c r="C32">
+        <v>17.335000000000001</v>
+      </c>
+      <c r="D32">
+        <v>41.308999999999997</v>
+      </c>
+      <c r="E32">
+        <v>42.573999999999998</v>
+      </c>
+      <c r="F32">
+        <v>40.017000000000003</v>
+      </c>
+      <c r="G32">
+        <v>16.192</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>-0.73300000000000409</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.865899602891773E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>14.866</v>
+      </c>
+      <c r="C33">
+        <v>18.376000000000001</v>
+      </c>
+      <c r="D33">
+        <v>15.721</v>
+      </c>
+      <c r="E33">
+        <v>15.721</v>
+      </c>
+      <c r="F33">
+        <v>14.866</v>
+      </c>
+      <c r="G33">
+        <v>18.376000000000001</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>21.888000000000002</v>
+      </c>
+      <c r="C34">
+        <v>16.856999999999999</v>
+      </c>
+      <c r="D34">
+        <v>24.085000000000001</v>
+      </c>
+      <c r="E34">
+        <v>25.44</v>
+      </c>
+      <c r="F34">
+        <v>22.885000000000002</v>
+      </c>
+      <c r="G34">
+        <v>17.838999999999999</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>-0.99699999999999989</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.5550073099415195E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>28.954000000000001</v>
+      </c>
+      <c r="C35">
+        <v>16.114000000000001</v>
+      </c>
+      <c r="D35">
+        <v>32.072000000000003</v>
+      </c>
+      <c r="E35">
+        <v>31.745000000000001</v>
+      </c>
+      <c r="F35">
+        <v>28.919</v>
+      </c>
+      <c r="G35">
+        <v>17.507000000000001</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000142E-2</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2088139807971314E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>35.075000000000003</v>
+      </c>
+      <c r="C36">
+        <v>16.018000000000001</v>
+      </c>
+      <c r="D36">
+        <v>38.084000000000003</v>
+      </c>
+      <c r="E36">
+        <v>38.084000000000003</v>
+      </c>
+      <c r="F36">
+        <v>35.075000000000003</v>
+      </c>
+      <c r="G36">
+        <v>16.018000000000001</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>